--- a/Documentação/Backlog_WorshipJesus.xlsx
+++ b/Documentação/Backlog_WorshipJesus.xlsx
@@ -10,15 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="22" documentId="8_{C7F0A79A-8D6E-4954-830F-FAB3166391E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC3CB46A-1496-44EC-903E-759E0D17BE5B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D6217A7A-EC5F-4722-8DDE-049238B43068}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D6217A7A-EC5F-4722-8DDE-049238B43068}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -410,12 +407,6 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -431,12 +422,6 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -456,6 +441,18 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,70 +470,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Backlog"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="58">
-          <cell r="G58" t="str">
-            <v>Planejado</v>
-          </cell>
-          <cell r="H58" t="str">
-            <v>Realizado</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="F59" t="str">
-            <v>Total</v>
-          </cell>
-          <cell r="G59">
-            <v>53</v>
-          </cell>
-          <cell r="H59">
-            <v>53</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="F60" t="str">
-            <v>SP01</v>
-          </cell>
-          <cell r="G60">
-            <v>36</v>
-          </cell>
-          <cell r="H60">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="F61" t="str">
-            <v>SP02</v>
-          </cell>
-          <cell r="G61">
-            <v>18</v>
-          </cell>
-          <cell r="H61">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="F62" t="str">
-            <v>SP03</v>
-          </cell>
-          <cell r="G62">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -858,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2706916A-7FB9-49F0-A826-3CC5844239B6}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -875,40 +810,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1762,58 +1697,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADFDA3C-1E94-4726-B0CA-A936EA1F403F}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection sqref="A1:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" style="16" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" style="21" customWidth="1"/>
-    <col min="9" max="16384" width="8.77734375" style="16"/>
+    <col min="1" max="1" width="25" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
